--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8A5515-4D21-46C9-8988-2A4F254DC9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D23A4F-2E69-4BAD-923C-40F20A405A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSwordAwakeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,22 @@
   </si>
   <si>
     <t>4000살</t>
+  </si>
+  <si>
+    <t>4섬</t>
+  </si>
+  <si>
+    <t>40섬</t>
+  </si>
+  <si>
+    <t>400섬</t>
+  </si>
+  <si>
+    <t>4000섬</t>
+  </si>
+  <si>
+    <t>AddChargeValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -896,11 +912,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -910,7 +926,7 @@
     <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -923,8 +939,11 @@
       <c r="D1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>0</v>
       </c>
@@ -937,8 +956,11 @@
       <c r="D2" s="23">
         <v>400000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -952,13 +974,16 @@
       <c r="D3" s="23">
         <v>500000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>2</v>
       </c>
       <c r="B4" s="19">
-        <f t="shared" ref="B4:B37" si="0">B3*10</f>
+        <f t="shared" ref="B4:B41" si="0">B3*10</f>
         <v>3.9999999999999999E+82</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -967,8 +992,11 @@
       <c r="D4" s="23">
         <v>600000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -982,8 +1010,11 @@
       <c r="D5" s="23">
         <v>700000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -997,8 +1028,11 @@
       <c r="D6" s="23">
         <v>800000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -1012,8 +1046,11 @@
       <c r="D7" s="23">
         <v>900000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -1027,8 +1064,11 @@
       <c r="D8" s="23">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -1042,8 +1082,11 @@
       <c r="D9" s="23">
         <v>1200000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -1057,8 +1100,11 @@
       <c r="D10" s="23">
         <v>1400000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -1072,8 +1118,11 @@
       <c r="D11" s="23">
         <v>1600000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -1087,8 +1136,11 @@
       <c r="D12" s="23">
         <v>1800000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -1102,8 +1154,11 @@
       <c r="D13" s="23">
         <v>2000000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -1117,8 +1172,11 @@
       <c r="D14" s="23">
         <v>2200000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -1132,8 +1190,11 @@
       <c r="D15" s="23">
         <v>2400000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -1147,8 +1208,11 @@
       <c r="D16" s="23">
         <v>2600000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -1162,8 +1226,11 @@
       <c r="D17" s="23">
         <v>2800000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -1177,8 +1244,11 @@
       <c r="D18" s="23">
         <v>3000000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>17</v>
       </c>
@@ -1192,8 +1262,11 @@
       <c r="D19" s="23">
         <v>3500000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -1207,8 +1280,11 @@
       <c r="D20" s="23">
         <v>4000000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -1222,8 +1298,11 @@
       <c r="D21" s="23">
         <v>4500000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -1237,8 +1316,11 @@
       <c r="D22" s="23">
         <v>5000000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -1252,8 +1334,11 @@
       <c r="D23" s="23">
         <v>5500000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -1267,8 +1352,11 @@
       <c r="D24" s="23">
         <v>6000000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -1282,8 +1370,11 @@
       <c r="D25" s="23">
         <v>7000000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -1297,8 +1388,11 @@
       <c r="D26" s="23">
         <v>8000000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -1312,8 +1406,11 @@
       <c r="D27" s="23">
         <v>9000000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -1327,8 +1424,11 @@
       <c r="D28" s="23">
         <v>10000000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -1342,8 +1442,11 @@
       <c r="D29" s="23">
         <v>11000000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>28</v>
       </c>
@@ -1357,8 +1460,11 @@
       <c r="D30" s="23">
         <v>12000000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>29</v>
       </c>
@@ -1372,8 +1478,11 @@
       <c r="D31" s="23">
         <v>13000000000</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>30</v>
       </c>
@@ -1387,8 +1496,11 @@
       <c r="D32" s="23">
         <v>14000000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>31</v>
       </c>
@@ -1402,8 +1514,11 @@
       <c r="D33" s="23">
         <v>15000000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>32</v>
       </c>
@@ -1417,8 +1532,11 @@
       <c r="D34" s="23">
         <v>16000000000</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>33</v>
       </c>
@@ -1432,8 +1550,11 @@
       <c r="D35" s="23">
         <v>17000000000</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>34</v>
       </c>
@@ -1447,8 +1568,11 @@
       <c r="D36" s="23">
         <v>18000000000</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>35</v>
       </c>
@@ -1461,6 +1585,81 @@
       </c>
       <c r="D37" s="23">
         <v>19000000000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="18">
+        <v>36</v>
+      </c>
+      <c r="B38" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E+116</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="23">
+        <v>20000000000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="18">
+        <v>37</v>
+      </c>
+      <c r="B39" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E+117</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="23">
+        <v>21000000000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="18">
+        <v>38</v>
+      </c>
+      <c r="B40" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E+118</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="23">
+        <v>22000000000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
+        <v>39</v>
+      </c>
+      <c r="B41" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000005E+119</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="23">
+        <v>23000000000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -2465,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="B1:AB64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:K42"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D23A4F-2E69-4BAD-923C-40F20A405A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B232742-1CB2-49A7-BFAC-E593D5197145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSwordAwakeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,38 @@
   </si>
   <si>
     <t>AddChargeValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,11 +944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -983,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="19">
-        <f t="shared" ref="B4:B41" si="0">B3*10</f>
+        <f t="shared" ref="B4:B49" si="0">B3*10</f>
         <v>3.9999999999999999E+82</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -1660,6 +1692,150 @@
       </c>
       <c r="E41" s="1">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="18">
+        <v>40</v>
+      </c>
+      <c r="B42" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000005E+120</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="23">
+        <v>24000000000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
+        <v>41</v>
+      </c>
+      <c r="B43" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000006E+121</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="23">
+        <v>26000000000</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="18">
+        <v>42</v>
+      </c>
+      <c r="B44" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E+122</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="23">
+        <v>28000000000</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="18">
+        <v>43</v>
+      </c>
+      <c r="B45" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000005E+123</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="23">
+        <v>30000000000</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="18">
+        <v>44</v>
+      </c>
+      <c r="B46" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000003E+124</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="23">
+        <v>32000000000</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="18">
+        <v>45</v>
+      </c>
+      <c r="B47" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000005E+125</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="23">
+        <v>34000000000</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="18">
+        <v>46</v>
+      </c>
+      <c r="B48" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000003E+126</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="23">
+        <v>36000000000</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="18">
+        <v>47</v>
+      </c>
+      <c r="B49" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000003E+127</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="23">
+        <v>38000000000</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -1673,7 +1849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE5F40D-1684-4728-AC3D-71132164ECDA}">
   <dimension ref="B1:B195"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
@@ -2664,7 +2840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="B1:AB64"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
